--- a/gd/数值规划/成长数值相关/付费方案.xlsx
+++ b/gd/数值规划/成长数值相关/付费方案.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="-30" windowWidth="28665" windowHeight="12555"/>
+    <workbookView xWindow="30" yWindow="-30" windowWidth="28665" windowHeight="12555" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="5" r:id="rId1"/>
@@ -790,7 +790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
@@ -954,8 +954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1035,8 +1035,11 @@
       <c r="H15" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="I15">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.15">
       <c r="D17" t="s">
         <v>44</v>
       </c>
@@ -1047,7 +1050,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:9" x14ac:dyDescent="0.15">
       <c r="D18" t="s">
         <v>44</v>
       </c>
@@ -1058,7 +1061,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:9" x14ac:dyDescent="0.15">
       <c r="D19" t="s">
         <v>38</v>
       </c>
@@ -1066,7 +1069,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C22" t="s">
         <v>43</v>
       </c>
@@ -1079,8 +1082,11 @@
       <c r="H22" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="I22">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.15">
       <c r="D24" t="s">
         <v>47</v>
       </c>
@@ -1088,7 +1094,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="3:9" x14ac:dyDescent="0.15">
       <c r="D25" t="s">
         <v>47</v>
       </c>
@@ -1096,7 +1102,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="3:9" x14ac:dyDescent="0.15">
       <c r="D26" t="s">
         <v>38</v>
       </c>

--- a/gd/数值规划/成长数值相关/付费方案.xlsx
+++ b/gd/数值规划/成长数值相关/付费方案.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="-30" windowWidth="28665" windowHeight="12555" activeTab="2"/>
+    <workbookView xWindow="30" yWindow="-30" windowWidth="28665" windowHeight="12555" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="5" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="抽奖" sheetId="1" r:id="rId3"/>
     <sheet name="坑深度" sheetId="3" r:id="rId4"/>
     <sheet name="产出获得分类" sheetId="4" r:id="rId5"/>
+    <sheet name="宠物产出规划" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="230">
   <si>
     <t>金币兑换坑</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -428,12 +429,510 @@
     <t>主要养成产出物</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>怪物投放规划</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>特稀有</t>
+  </si>
+  <si>
+    <t>五行</t>
+  </si>
+  <si>
+    <t>性格</t>
+  </si>
+  <si>
+    <t>大招</t>
+  </si>
+  <si>
+    <t>被动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剧情副本</t>
+  </si>
+  <si>
+    <t>通天塔</t>
+  </si>
+  <si>
+    <t>大冒险</t>
+  </si>
+  <si>
+    <t>PVP</t>
+  </si>
+  <si>
+    <t>公会任务</t>
+  </si>
+  <si>
+    <t>工会战</t>
+  </si>
+  <si>
+    <t>考虑Leader, 性格，初始大招能量</t>
+  </si>
+  <si>
+    <t>早期投放，后期使用怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花魄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体D，自我增益</t>
+  </si>
+  <si>
+    <t>草</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体物理纯伤害（手动，点到爽型）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理攻击附加自身力量提升</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凯瑞斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体火法术纯伤害（自动）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术攻击附加自身智力提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曼陀罗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体治疗，大招同单体（对于拉的住的T很有用，但是）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治疗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体纯治疗（自动）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到伤害时智力提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舞狮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>己方全体群体力量and智力提升</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量低于XX%，速度提升</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女妖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击有效降低属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体暗法术伤害（自动）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术攻击造成伤害时几率附加敌方防御力下降</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>早期投放，后续没用怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜥蜴人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯属性提升（怪物自身、装备影响过大）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体物理纯伤害（手动，点到爽型）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量提升10%</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>小丑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体火法术纯伤害（手动，点到爽型）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体智力提升10%</t>
+  </si>
+  <si>
+    <t>群体水法术纯伤害（自动）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙宫童子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体纯治疗（自动）</t>
+  </si>
+  <si>
+    <t>暴击率提升10%</t>
+  </si>
+  <si>
+    <t>群体嘲讽（会被攻击型T和保护型加盾T取代，但是前期必要）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体嘲讽（自动）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理攻击时，几率嘲讽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到伤害时，几率嘲讽攻方</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>火刺壳</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体嘲讽（自动）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈皮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hot（纯hot难理解且不如群加+hot）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体治疗几率附加hot</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡己方群体回血</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前置攻击更加适用于pvp，对于后期回合长度较长不利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前置物攻</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>河童</t>
+  </si>
+  <si>
+    <t>群体水属性伤害（自动）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>前置技能，群体添加防御buff</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体水法术纯伤害（手动，点到爽型）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>前置技能，群体加智力</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>河童</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯单体D，后期被秒或不受伤导致价值降低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体草法术纯伤害（手动，点到爽型）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量低于XX%，智力提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼人</t>
+  </si>
+  <si>
+    <t>纯单体D，后期受到伤害几率降低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体纯物理伤害（手动，点到爽型）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理攻击造成伤害时恢复体力</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛙鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体水法术纯伤害（自动）</t>
+  </si>
+  <si>
+    <t>受到伤害时，攻方速度下降</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>凯瑞斯</t>
+  </si>
+  <si>
+    <t>死亡反应不益触发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方群体暗法术伤害几率附带智力下降</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡敌方群体防御下降</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>中期投放， 后期木啥用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮影</t>
+  </si>
+  <si>
+    <t>攻击+dot（dot替代导致此类怪物需求玩家分别上dot，若集火同一只怪物削减较大）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体暗法术伤害（自动）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术攻击造成伤害时几率附加暗属性弱dot</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dot怪+大招群体dot（dot替代导致部分技能价值浪费）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hot怪+大招群体hot（hot替代导致部分技能价值浪费）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中期投放， 后期实用，替代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驱散</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体吸收盾、减免盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水鬼</t>
+  </si>
+  <si>
+    <t>眩晕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体水法术伤害几率附带眩晕（自动）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用buff技能，目标几率眩晕</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>加血+hot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击嘲讽，吸血的T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被攻击上盾，主动嘲讽怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后期投放,应对玩法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁疗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸡肋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性较低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通技能分配低（都用低伤害）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能明显不能体现职业特点（物理攻击的给自己加智力等）或者与AI不搭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料宠</t>
+  </si>
+  <si>
+    <t>总数</t>
+  </si>
+  <si>
+    <t>稀有度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -457,8 +956,30 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -468,6 +989,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,9 +1011,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -497,12 +1039,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -544,7 +1089,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -579,7 +1124,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -954,8 +1499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1409,4 +1954,851 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11" style="2"/>
+    <col min="2" max="2" width="12.375" style="2" customWidth="1"/>
+    <col min="3" max="4" width="11" style="2"/>
+    <col min="5" max="6" width="16" style="2" customWidth="1"/>
+    <col min="7" max="8" width="11" style="2"/>
+    <col min="9" max="9" width="34.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="11" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="33" x14ac:dyDescent="0.3">
+      <c r="F2" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B14" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B19" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B20" s="6"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B21" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B23" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B24" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B25" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B26" s="6"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B27" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B28" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B29" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B31" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B32" s="6"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C33" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B34" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E35" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E36" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C39" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E40" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E41" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B42" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E43" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E44" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E45" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C47" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A48" s="4"/>
+      <c r="E48" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="N48" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A49" s="4"/>
+      <c r="E49" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A50" s="4"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C51" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A52" s="4"/>
+      <c r="D52" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A53" s="4"/>
+      <c r="D53" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A54" s="4"/>
+      <c r="D54" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A55" s="4"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C56" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A57" s="4"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A58" s="4"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A59" s="4"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A60" s="4"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C61" s="2">
+        <f>SUM(C3:C55)</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A62" s="4"/>
+      <c r="F62" s="2">
+        <f>5^5</f>
+        <v>3125</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A63" s="4"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A64" s="4"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="4"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+</worksheet>
 </file>